--- a/Processes/CreateEmployeeReport_Windows/Report.xlsx
+++ b/Processes/CreateEmployeeReport_Windows/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\WKDY_EmployeeReport\Processes\CreateEmployeeReport_Windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0E9BF6-3B4E-4A89-83FE-FFDEAB4146AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A6C6CC-FB4A-42D1-B9C9-EF43806DFE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12735" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24600" yWindow="1110" windowWidth="21600" windowHeight="12735" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
@@ -6674,7 +6674,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
